--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Adam9-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Adam9-Itgb1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.83171066666667</v>
+        <v>11.92133566666667</v>
       </c>
       <c r="H2">
-        <v>35.495132</v>
+        <v>35.764007</v>
       </c>
       <c r="I2">
-        <v>0.08216403528111248</v>
+        <v>0.10300114145944</v>
       </c>
       <c r="J2">
-        <v>0.08216403528111249</v>
+        <v>0.10300114145944</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N2">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O2">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P2">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q2">
-        <v>1936.992843129577</v>
+        <v>1901.257973991598</v>
       </c>
       <c r="R2">
-        <v>17432.93558816619</v>
+        <v>17111.32176592439</v>
       </c>
       <c r="S2">
-        <v>0.02262800047834103</v>
+        <v>0.0307281769043855</v>
       </c>
       <c r="T2">
-        <v>0.02262800047834103</v>
+        <v>0.0307281769043855</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.83171066666667</v>
+        <v>11.92133566666667</v>
       </c>
       <c r="H3">
-        <v>35.495132</v>
+        <v>35.764007</v>
       </c>
       <c r="I3">
-        <v>0.08216403528111248</v>
+        <v>0.10300114145944</v>
       </c>
       <c r="J3">
-        <v>0.08216403528111249</v>
+        <v>0.10300114145944</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>517.675491</v>
       </c>
       <c r="O3">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P3">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q3">
-        <v>2041.662209578868</v>
+        <v>2057.127764872493</v>
       </c>
       <c r="R3">
-        <v>18374.95988620981</v>
+        <v>18514.14988385243</v>
       </c>
       <c r="S3">
-        <v>0.02385075072364164</v>
+        <v>0.03324734819715972</v>
       </c>
       <c r="T3">
-        <v>0.02385075072364164</v>
+        <v>0.03324734819715971</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.83171066666667</v>
+        <v>11.92133566666667</v>
       </c>
       <c r="H4">
-        <v>35.495132</v>
+        <v>35.764007</v>
       </c>
       <c r="I4">
-        <v>0.08216403528111248</v>
+        <v>0.10300114145944</v>
       </c>
       <c r="J4">
-        <v>0.08216403528111249</v>
+        <v>0.10300114145944</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N4">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O4">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P4">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q4">
-        <v>1319.095703149786</v>
+        <v>886.8008087255354</v>
       </c>
       <c r="R4">
-        <v>11871.86132834808</v>
+        <v>7981.207278529819</v>
       </c>
       <c r="S4">
-        <v>0.01540971011210609</v>
+        <v>0.01433249590651857</v>
       </c>
       <c r="T4">
-        <v>0.01540971011210609</v>
+        <v>0.01433249590651857</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.83171066666667</v>
+        <v>11.92133566666667</v>
       </c>
       <c r="H5">
-        <v>35.495132</v>
+        <v>35.764007</v>
       </c>
       <c r="I5">
-        <v>0.08216403528111248</v>
+        <v>0.10300114145944</v>
       </c>
       <c r="J5">
-        <v>0.08216403528111249</v>
+        <v>0.10300114145944</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N5">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O5">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P5">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q5">
-        <v>706.7597038175421</v>
+        <v>696.3802253065445</v>
       </c>
       <c r="R5">
-        <v>6360.837334357879</v>
+        <v>6267.422027758901</v>
       </c>
       <c r="S5">
-        <v>0.00825638513471042</v>
+        <v>0.01125491387736838</v>
       </c>
       <c r="T5">
-        <v>0.008256385134710421</v>
+        <v>0.01125491387736838</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.83171066666667</v>
+        <v>11.92133566666667</v>
       </c>
       <c r="H6">
-        <v>35.495132</v>
+        <v>35.764007</v>
       </c>
       <c r="I6">
-        <v>0.08216403528111248</v>
+        <v>0.10300114145944</v>
       </c>
       <c r="J6">
-        <v>0.08216403528111249</v>
+        <v>0.10300114145944</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N6">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O6">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P6">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q6">
-        <v>1028.861687125112</v>
+        <v>831.4680524158373</v>
       </c>
       <c r="R6">
-        <v>9259.755184126003</v>
+        <v>7483.212471742537</v>
       </c>
       <c r="S6">
-        <v>0.0120191888323133</v>
+        <v>0.01343820657400784</v>
       </c>
       <c r="T6">
-        <v>0.0120191888323133</v>
+        <v>0.01343820657400784</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>42.868669</v>
+        <v>42.86866899999999</v>
       </c>
       <c r="H7">
         <v>128.606007</v>
       </c>
       <c r="I7">
-        <v>0.2976968361890019</v>
+        <v>0.3703881816022666</v>
       </c>
       <c r="J7">
-        <v>0.2976968361890019</v>
+        <v>0.3703881816022665</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N7">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O7">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P7">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q7">
-        <v>7018.114910587522</v>
+        <v>6836.851259758709</v>
       </c>
       <c r="R7">
-        <v>63163.03419528769</v>
+        <v>61531.66133782837</v>
       </c>
       <c r="S7">
-        <v>0.08198579985316103</v>
+        <v>0.1104973537798111</v>
       </c>
       <c r="T7">
-        <v>0.08198579985316101</v>
+        <v>0.1104973537798111</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>42.868669</v>
+        <v>42.86866899999999</v>
       </c>
       <c r="H8">
         <v>128.606007</v>
       </c>
       <c r="I8">
-        <v>0.2976968361890019</v>
+        <v>0.3703881816022666</v>
       </c>
       <c r="J8">
-        <v>0.2976968361890019</v>
+        <v>0.3703881816022665</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>517.675491</v>
       </c>
       <c r="O8">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P8">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q8">
-        <v>7397.353091030493</v>
+        <v>7397.353091030491</v>
       </c>
       <c r="R8">
-        <v>66576.17781927444</v>
+        <v>66576.17781927442</v>
       </c>
       <c r="S8">
-        <v>0.0864160700830726</v>
+        <v>0.1195561977989591</v>
       </c>
       <c r="T8">
-        <v>0.08641607008307259</v>
+        <v>0.1195561977989591</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>42.868669</v>
+        <v>42.86866899999999</v>
       </c>
       <c r="H9">
         <v>128.606007</v>
       </c>
       <c r="I9">
-        <v>0.2976968361890019</v>
+        <v>0.3703881816022666</v>
       </c>
       <c r="J9">
-        <v>0.2976968361890019</v>
+        <v>0.3703881816022665</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N9">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O9">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P9">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q9">
-        <v>4779.349214223273</v>
+        <v>3188.901931893757</v>
       </c>
       <c r="R9">
-        <v>43014.14292800945</v>
+        <v>28700.11738704381</v>
       </c>
       <c r="S9">
-        <v>0.05583248110037982</v>
+        <v>0.05153910938674178</v>
       </c>
       <c r="T9">
-        <v>0.05583248110037982</v>
+        <v>0.05153910938674178</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>42.868669</v>
+        <v>42.86866899999999</v>
       </c>
       <c r="H10">
         <v>128.606007</v>
       </c>
       <c r="I10">
-        <v>0.2976968361890019</v>
+        <v>0.3703881816022666</v>
       </c>
       <c r="J10">
-        <v>0.2976968361890019</v>
+        <v>0.3703881816022665</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N10">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O10">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P10">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q10">
-        <v>2560.732649662403</v>
+        <v>2504.156766618322</v>
       </c>
       <c r="R10">
-        <v>23046.59384696163</v>
+        <v>22537.4108995649</v>
       </c>
       <c r="S10">
-        <v>0.02991454502632261</v>
+        <v>0.04047224162821674</v>
       </c>
       <c r="T10">
-        <v>0.02991454502632261</v>
+        <v>0.04047224162821674</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>42.868669</v>
+        <v>42.86866899999999</v>
       </c>
       <c r="H11">
         <v>128.606007</v>
       </c>
       <c r="I11">
-        <v>0.2976968361890019</v>
+        <v>0.3703881816022666</v>
       </c>
       <c r="J11">
-        <v>0.2976968361890019</v>
+        <v>0.3703881816022665</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N11">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O11">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P11">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q11">
-        <v>3727.772961555514</v>
+        <v>2989.927447706503</v>
       </c>
       <c r="R11">
-        <v>33549.95665399963</v>
+        <v>26909.34702935853</v>
       </c>
       <c r="S11">
-        <v>0.04354794012606591</v>
+        <v>0.04832327900853778</v>
       </c>
       <c r="T11">
-        <v>0.0435479401260659</v>
+        <v>0.04832327900853779</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>42.11645766666667</v>
+        <v>27.63817166666666</v>
       </c>
       <c r="H12">
-        <v>126.349373</v>
+        <v>82.91451499999999</v>
       </c>
       <c r="I12">
-        <v>0.2924731859264094</v>
+        <v>0.23879566091562</v>
       </c>
       <c r="J12">
-        <v>0.2924731859264094</v>
+        <v>0.23879566091562</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N12">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O12">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P12">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q12">
-        <v>6894.968899817288</v>
+        <v>4407.836146643076</v>
       </c>
       <c r="R12">
-        <v>62054.72009835559</v>
+        <v>39670.52531978768</v>
       </c>
       <c r="S12">
-        <v>0.08054720497115182</v>
+        <v>0.07123955335489464</v>
       </c>
       <c r="T12">
-        <v>0.08054720497115181</v>
+        <v>0.07123955335489462</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>42.11645766666667</v>
+        <v>27.63817166666666</v>
       </c>
       <c r="H13">
-        <v>126.349373</v>
+        <v>82.91451499999999</v>
       </c>
       <c r="I13">
-        <v>0.2924731859264094</v>
+        <v>0.23879566091562</v>
       </c>
       <c r="J13">
-        <v>0.2924731859264094</v>
+        <v>0.23879566091562</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>517.675491</v>
       </c>
       <c r="O13">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P13">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q13">
-        <v>7267.552633924127</v>
+        <v>4769.201362627984</v>
       </c>
       <c r="R13">
-        <v>65407.97370531715</v>
+        <v>42922.81226365186</v>
       </c>
       <c r="S13">
-        <v>0.08489973778690042</v>
+        <v>0.07707994662912414</v>
       </c>
       <c r="T13">
-        <v>0.08489973778690041</v>
+        <v>0.07707994662912412</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>42.11645766666667</v>
+        <v>27.63817166666666</v>
       </c>
       <c r="H14">
-        <v>126.349373</v>
+        <v>82.91451499999999</v>
       </c>
       <c r="I14">
-        <v>0.2924731859264094</v>
+        <v>0.23879566091562</v>
       </c>
       <c r="J14">
-        <v>0.2924731859264094</v>
+        <v>0.23879566091562</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N14">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O14">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P14">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q14">
-        <v>4695.48655347921</v>
+        <v>2055.940179104806</v>
       </c>
       <c r="R14">
-        <v>42259.3789813129</v>
+        <v>18503.46161194325</v>
       </c>
       <c r="S14">
-        <v>0.05485279532912751</v>
+        <v>0.03322815440754368</v>
       </c>
       <c r="T14">
-        <v>0.05485279532912751</v>
+        <v>0.03322815440754368</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>42.11645766666667</v>
+        <v>27.63817166666666</v>
       </c>
       <c r="H15">
-        <v>126.349373</v>
+        <v>82.91451499999999</v>
       </c>
       <c r="I15">
-        <v>0.2924731859264094</v>
+        <v>0.23879566091562</v>
       </c>
       <c r="J15">
-        <v>0.2924731859264094</v>
+        <v>0.23879566091562</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N15">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O15">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P15">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q15">
-        <v>2515.799784573619</v>
+        <v>1614.473138786794</v>
       </c>
       <c r="R15">
-        <v>22642.19806116257</v>
+        <v>14530.25824908114</v>
       </c>
       <c r="S15">
-        <v>0.02938963813452454</v>
+        <v>0.02609315353027329</v>
       </c>
       <c r="T15">
-        <v>0.02938963813452454</v>
+        <v>0.02609315353027329</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>42.11645766666667</v>
+        <v>27.63817166666666</v>
       </c>
       <c r="H16">
-        <v>126.349373</v>
+        <v>82.91451499999999</v>
       </c>
       <c r="I16">
-        <v>0.2924731859264094</v>
+        <v>0.23879566091562</v>
       </c>
       <c r="J16">
-        <v>0.2924731859264094</v>
+        <v>0.23879566091562</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N16">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O16">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P16">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q16">
-        <v>3662.362181720581</v>
+        <v>1927.657890908413</v>
       </c>
       <c r="R16">
-        <v>32961.25963548524</v>
+        <v>17348.92101817572</v>
       </c>
       <c r="S16">
-        <v>0.04278380970470507</v>
+        <v>0.03115485299378427</v>
       </c>
       <c r="T16">
-        <v>0.04278380970470506</v>
+        <v>0.03115485299378427</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>7.002139333333333</v>
+        <v>6.093442</v>
       </c>
       <c r="H17">
-        <v>21.006418</v>
+        <v>18.280326</v>
       </c>
       <c r="I17">
-        <v>0.04862559941126001</v>
+        <v>0.05264774845421206</v>
       </c>
       <c r="J17">
-        <v>0.04862559941126002</v>
+        <v>0.05264774845421205</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N17">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O17">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P17">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q17">
-        <v>1146.334131840623</v>
+        <v>971.8042940397014</v>
       </c>
       <c r="R17">
-        <v>10317.00718656561</v>
+        <v>8746.238646357311</v>
       </c>
       <c r="S17">
-        <v>0.0133915049689696</v>
+        <v>0.01570632427171368</v>
       </c>
       <c r="T17">
-        <v>0.0133915049689696</v>
+        <v>0.01570632427171367</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>7.002139333333333</v>
+        <v>6.093442</v>
       </c>
       <c r="H18">
-        <v>21.006418</v>
+        <v>18.280326</v>
       </c>
       <c r="I18">
-        <v>0.04862559941126001</v>
+        <v>0.05264774845421206</v>
       </c>
       <c r="J18">
-        <v>0.04862559941126002</v>
+        <v>0.05264774845421205</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>517.675491</v>
       </c>
       <c r="O18">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P18">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q18">
-        <v>1208.278639144582</v>
+        <v>1051.475193076674</v>
       </c>
       <c r="R18">
-        <v>10874.50775230124</v>
+        <v>9463.276737690065</v>
       </c>
       <c r="S18">
-        <v>0.01411514230499604</v>
+        <v>0.01699396724979927</v>
       </c>
       <c r="T18">
-        <v>0.01411514230499604</v>
+        <v>0.01699396724979927</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>7.002139333333333</v>
+        <v>6.093442</v>
       </c>
       <c r="H19">
-        <v>21.006418</v>
+        <v>18.280326</v>
       </c>
       <c r="I19">
-        <v>0.04862559941126001</v>
+        <v>0.05264774845421206</v>
       </c>
       <c r="J19">
-        <v>0.04862559941126002</v>
+        <v>0.05264774845421205</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N19">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O19">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P19">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q19">
-        <v>780.6556606795638</v>
+        <v>453.2771699929046</v>
       </c>
       <c r="R19">
-        <v>7025.900946116074</v>
+        <v>4079.494529936142</v>
       </c>
       <c r="S19">
-        <v>0.009119639613503266</v>
+        <v>0.007325876475888875</v>
       </c>
       <c r="T19">
-        <v>0.009119639613503268</v>
+        <v>0.007325876475888875</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>7.002139333333333</v>
+        <v>6.093442</v>
       </c>
       <c r="H20">
-        <v>21.006418</v>
+        <v>18.280326</v>
       </c>
       <c r="I20">
-        <v>0.04862559941126001</v>
+        <v>0.05264774845421206</v>
       </c>
       <c r="J20">
-        <v>0.04862559941126002</v>
+        <v>0.05264774845421205</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N20">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O20">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P20">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q20">
-        <v>418.2683350479577</v>
+        <v>355.9460643925353</v>
       </c>
       <c r="R20">
-        <v>3764.415015431619</v>
+        <v>3203.514579532818</v>
       </c>
       <c r="S20">
-        <v>0.00488622150521129</v>
+        <v>0.005752808816423116</v>
       </c>
       <c r="T20">
-        <v>0.00488622150521129</v>
+        <v>0.005752808816423116</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>7.002139333333333</v>
+        <v>6.093442</v>
       </c>
       <c r="H21">
-        <v>21.006418</v>
+        <v>18.280326</v>
       </c>
       <c r="I21">
-        <v>0.04862559941126001</v>
+        <v>0.05264774845421206</v>
       </c>
       <c r="J21">
-        <v>0.04862559941126002</v>
+        <v>0.05264774845421205</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N21">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O21">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P21">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q21">
-        <v>608.8919084435385</v>
+        <v>424.994521915472</v>
       </c>
       <c r="R21">
-        <v>5480.027175991846</v>
+        <v>3824.950697239248</v>
       </c>
       <c r="S21">
-        <v>0.007113091018579817</v>
+        <v>0.006868771640387121</v>
       </c>
       <c r="T21">
-        <v>0.007113091018579816</v>
+        <v>0.00686877164038712</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>40.18211366666667</v>
+        <v>27.218222</v>
       </c>
       <c r="H22">
-        <v>120.546341</v>
+        <v>81.65466599999999</v>
       </c>
       <c r="I22">
-        <v>0.2790403431922162</v>
+        <v>0.2351672675684614</v>
       </c>
       <c r="J22">
-        <v>0.2790403431922163</v>
+        <v>0.2351672675684614</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N22">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O22">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P22">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q22">
-        <v>6578.293603259666</v>
+        <v>4340.861046306155</v>
       </c>
       <c r="R22">
-        <v>59204.64242933699</v>
+        <v>39067.74941675539</v>
       </c>
       <c r="S22">
-        <v>0.07684779596847989</v>
+        <v>0.07015710017942095</v>
       </c>
       <c r="T22">
-        <v>0.07684779596847989</v>
+        <v>0.07015710017942094</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>40.18211366666667</v>
+        <v>27.218222</v>
       </c>
       <c r="H23">
-        <v>120.546341</v>
+        <v>81.65466599999999</v>
       </c>
       <c r="I23">
-        <v>0.2790403431922162</v>
+        <v>0.2351672675684614</v>
       </c>
       <c r="J23">
-        <v>0.2790403431922163</v>
+        <v>0.2351672675684614</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>517.675491</v>
       </c>
       <c r="O23">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P23">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q23">
-        <v>6933.765140603158</v>
+        <v>4696.735479332333</v>
       </c>
       <c r="R23">
-        <v>62403.88626542842</v>
+        <v>42270.619313991</v>
       </c>
       <c r="S23">
-        <v>0.08100042365916831</v>
+        <v>0.07590875128798567</v>
       </c>
       <c r="T23">
-        <v>0.08100042365916831</v>
+        <v>0.07590875128798566</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>40.18211366666667</v>
+        <v>27.218222</v>
       </c>
       <c r="H24">
-        <v>120.546341</v>
+        <v>81.65466599999999</v>
       </c>
       <c r="I24">
-        <v>0.2790403431922162</v>
+        <v>0.2351672675684614</v>
       </c>
       <c r="J24">
-        <v>0.2790403431922163</v>
+        <v>0.2351672675684614</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N24">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O24">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P24">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q24">
-        <v>4479.830091730012</v>
+        <v>2024.701086905991</v>
       </c>
       <c r="R24">
-        <v>40318.47082557011</v>
+        <v>18222.30978215392</v>
       </c>
       <c r="S24">
-        <v>0.05233349096673563</v>
+        <v>0.03272326745135525</v>
       </c>
       <c r="T24">
-        <v>0.05233349096673565</v>
+        <v>0.03272326745135525</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>40.18211366666667</v>
+        <v>27.218222</v>
       </c>
       <c r="H25">
-        <v>120.546341</v>
+        <v>81.65466599999999</v>
       </c>
       <c r="I25">
-        <v>0.2790403431922162</v>
+        <v>0.2351672675684614</v>
       </c>
       <c r="J25">
-        <v>0.2790403431922163</v>
+        <v>0.2351672675684614</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N25">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O25">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P25">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q25">
-        <v>2400.252977265965</v>
+        <v>1589.941940969049</v>
       </c>
       <c r="R25">
-        <v>21602.27679539369</v>
+        <v>14309.47746872144</v>
       </c>
       <c r="S25">
-        <v>0.02803981734385812</v>
+        <v>0.02569667972370322</v>
       </c>
       <c r="T25">
-        <v>0.02803981734385812</v>
+        <v>0.02569667972370322</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>40.18211366666667</v>
+        <v>27.218222</v>
       </c>
       <c r="H26">
-        <v>120.546341</v>
+        <v>81.65466599999999</v>
       </c>
       <c r="I26">
-        <v>0.2790403431922162</v>
+        <v>0.2351672675684614</v>
       </c>
       <c r="J26">
-        <v>0.2790403431922163</v>
+        <v>0.2351672675684614</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N26">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O26">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P26">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q26">
-        <v>3494.155530341992</v>
+        <v>1898.367990747952</v>
       </c>
       <c r="R26">
-        <v>31447.39977307793</v>
+        <v>17085.31191673157</v>
       </c>
       <c r="S26">
-        <v>0.04081881525397428</v>
+        <v>0.03068146892599631</v>
       </c>
       <c r="T26">
-        <v>0.04081881525397428</v>
+        <v>0.03068146892599631</v>
       </c>
     </row>
   </sheetData>
